--- a/KER.PA.xlsx
+++ b/KER.PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F78188-714D-4830-80A0-7DC447121E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40C33D-0C48-4E3F-A5D5-E1D03E07AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="523">
   <si>
     <t>Kering</t>
   </si>
@@ -1699,6 +1699,18 @@
   </si>
   <si>
     <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -2378,6 +2390,146 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2413,6 +2565,246 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2528,346 +2920,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2948,6 +3000,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2968,21 +3040,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3018,71 +3090,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3138,21 +3150,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4234,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30076D03-558C-464F-8F0F-AA9F5CEE4D93}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4272,7 +4284,7 @@
         <v>122.617597</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -4285,7 +4297,7 @@
       </c>
       <c r="H4" s="23">
         <f>H3*H2</f>
-        <v>20109.285908000002</v>
+        <v>21335.461878000002</v>
       </c>
       <c r="K4" s="2"/>
       <c r="N4" s="23"/>
@@ -4301,7 +4313,7 @@
         <v>3518</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="N5" s="23"/>
     </row>
@@ -4314,7 +4326,7 @@
         <v>14035</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="N6" s="23"/>
     </row>
@@ -4336,7 +4348,7 @@
       </c>
       <c r="H7" s="23">
         <f>H4+H6-H5</f>
-        <v>30626.285908000005</v>
+        <v>31852.461878000002</v>
       </c>
       <c r="N7" s="23"/>
     </row>
@@ -5111,7 +5123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92018374-23ED-4A40-9C48-9BEB4D31C926}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -5141,7 +5153,7 @@
   <dimension ref="A1:BH183"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J44" sqref="J44:Q44"/>
@@ -19996,10 +20008,10 @@
   <dimension ref="A1:AL227"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20049,6 +20061,18 @@
       </c>
       <c r="N2" s="16" t="s">
         <v>480</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -20113,7 +20137,9 @@
       <c r="N4" s="23">
         <v>1924</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="23">
+        <v>1571</v>
+      </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
@@ -20180,7 +20206,9 @@
       <c r="N5" s="23">
         <v>770</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="23">
+        <v>679</v>
+      </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
@@ -20247,7 +20275,9 @@
       <c r="N6" s="23">
         <v>480</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="23">
+        <v>405</v>
+      </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
@@ -20314,7 +20344,9 @@
       <c r="N7" s="23">
         <v>818</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="23">
+        <v>733</v>
+      </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
@@ -20381,7 +20413,9 @@
       <c r="N8" s="23">
         <v>434</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="23">
+        <v>558</v>
+      </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
@@ -20448,7 +20482,9 @@
       <c r="N9" s="23">
         <v>-36</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="23">
+        <v>-63</v>
+      </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
@@ -20522,10 +20558,13 @@
         <v>3786</v>
       </c>
       <c r="N10" s="25">
-        <f t="shared" ref="N10" si="5">+SUM(N4:N9)</f>
+        <f t="shared" ref="N10:O10" si="5">+SUM(N4:N9)</f>
         <v>4390</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="25">
+        <f t="shared" si="5"/>
+        <v>3883</v>
+      </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
@@ -20599,39 +20638,42 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="18">
+      <c r="G12" s="111">
         <f t="shared" ref="G12:H18" si="6">+G4/C4-1</f>
         <v>9.6487842531840506E-3</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="111">
         <f t="shared" si="6"/>
         <v>-2.7110766847405099E-2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="111">
         <f>+I4/E4-1</f>
         <v>-0.14103060829135994</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="111">
         <f t="shared" ref="J12:L18" si="7">+J4/F4-1</f>
         <v>-7.5009147457006931E-2</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="111">
         <f t="shared" si="7"/>
         <v>-0.20527522935779818</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="111">
         <f t="shared" si="7"/>
         <v>-0.20143312101910826</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="111">
         <f>+M4/I4-1</f>
         <v>-0.2598105548037889</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="111">
         <f>+N4/J4-1</f>
         <v>-0.23892405063291144</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="111">
+        <f>+O4/K4-1</f>
+        <v>-0.24434824434824431</v>
+      </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
@@ -20664,39 +20706,42 @@
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="18">
+      <c r="G13" s="111">
         <f t="shared" si="6"/>
         <v>9.0663058186738921E-2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="111">
         <f t="shared" si="6"/>
         <v>3.7735849056603765E-2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="111">
         <f t="shared" ref="I13:I18" si="8">+I5/E5-1</f>
         <v>-0.16157205240174677</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="111">
         <f t="shared" si="7"/>
         <v>-7.5304540420819466E-2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="111">
         <f t="shared" si="7"/>
         <v>-8.1885856079404462E-2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="111">
         <f t="shared" si="7"/>
         <v>-8.9610389610389585E-2</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="111">
         <f t="shared" ref="M13:N18" si="9">+M5/I5-1</f>
         <v>-0.12760416666666663</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="111">
         <f t="shared" si="9"/>
         <v>-7.7844311377245456E-2</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="111">
+        <f t="shared" ref="O13:O17" si="10">+O5/K5-1</f>
+        <v>-8.2432432432432479E-2</v>
+      </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -20729,39 +20774,42 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="18">
+      <c r="G14" s="111">
         <f t="shared" si="6"/>
         <v>-2.525252525252486E-3</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="111">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="111">
         <f t="shared" si="8"/>
         <v>-0.12814645308924488</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="111">
         <f t="shared" si="7"/>
         <v>-8.102345415778256E-2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="111">
         <f t="shared" si="7"/>
         <v>-1.7721518987341756E-2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="111">
         <f t="shared" si="7"/>
         <v>2.2831050228310446E-2</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="111">
         <f t="shared" si="9"/>
         <v>4.1994750656167978E-2</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="111">
         <f t="shared" si="9"/>
         <v>0.11368909512761016</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="111">
+        <f t="shared" si="10"/>
+        <v>4.3814432989690788E-2</v>
+      </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
@@ -20794,39 +20842,42 @@
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="18">
+      <c r="G15" s="111">
         <f t="shared" si="6"/>
         <v>-8.5303186022610444E-2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="111">
         <f t="shared" si="6"/>
         <v>-1.6293279022403295E-2</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="111">
         <f t="shared" si="8"/>
         <v>-0.19095477386934678</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="111">
         <f t="shared" si="7"/>
         <v>-7.6839826839826819E-2</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="111">
         <f t="shared" si="7"/>
         <v>-7.415730337078652E-2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="111">
         <f t="shared" si="7"/>
         <v>-7.556935817805388E-2</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="111">
         <f t="shared" si="9"/>
         <v>-0.14782608695652177</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="111">
         <f t="shared" si="9"/>
         <v>-4.1031652989448997E-2</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.1104368932038835</v>
+      </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -20859,39 +20910,42 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="18">
+      <c r="G16" s="111">
         <f t="shared" si="6"/>
         <v>0.4058441558441559</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="111">
         <f t="shared" si="6"/>
         <v>0.54063604240282692</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="111">
         <f t="shared" si="8"/>
         <v>0.3162055335968379</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="111">
         <f t="shared" si="7"/>
         <v>0.2406779661016949</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="111">
         <f t="shared" si="7"/>
         <v>0.23787528868360286</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="111">
         <f t="shared" si="7"/>
         <v>0.21788990825688082</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="111">
         <f t="shared" si="9"/>
         <v>0.3213213213213213</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="111">
         <f t="shared" si="9"/>
         <v>0.18579234972677594</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="111">
+        <f t="shared" si="10"/>
+        <v>4.1044776119403048E-2</v>
+      </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
@@ -20924,39 +20978,42 @@
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="18">
+      <c r="G17" s="111">
         <f t="shared" si="6"/>
         <v>0.23529411764705888</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="111">
         <f t="shared" si="6"/>
         <v>0.20754716981132071</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="111">
         <f t="shared" si="8"/>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="111">
         <f t="shared" si="7"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="111">
         <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="111">
         <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="111">
         <f t="shared" si="9"/>
         <v>-0.21739130434782605</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -20989,39 +21046,42 @@
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="18">
+      <c r="G18" s="111">
         <f t="shared" si="6"/>
         <v>2.4414850686037104E-2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="111">
         <f t="shared" si="6"/>
         <v>1.6887816646562026E-2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="111">
         <f t="shared" si="8"/>
         <v>-0.13101031730582047</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="111">
         <f t="shared" si="7"/>
         <v>-5.9992429977289929E-2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="111">
         <f t="shared" si="7"/>
         <v>-0.11286192633444947</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="111">
         <f t="shared" si="7"/>
         <v>-0.1075523922499011</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="111">
         <f t="shared" si="9"/>
         <v>-0.1518817204301075</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="111">
         <f t="shared" si="9"/>
         <v>-0.11616670022146169</v>
       </c>
-      <c r="O18" s="23"/>
+      <c r="O18" s="111">
+        <f>+O10/K10-1</f>
+        <v>-0.1378774422735346</v>
+      </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
@@ -31281,14 +31341,14 @@
       </c>
       <c r="J3" s="57">
         <f>Main!H2</f>
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
         <v>154</v>
       </c>
       <c r="O3" s="57">
         <f>Main!H2</f>
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -31325,14 +31385,14 @@
       </c>
       <c r="J5" s="60">
         <f ca="1">J4/J3-1</f>
-        <v>3.3644526483966422</v>
+        <v>3.113622036419823</v>
       </c>
       <c r="L5" t="s">
         <v>157</v>
       </c>
       <c r="O5" s="60">
         <f>O4/O3-1</f>
-        <v>1.0808536585365855</v>
+        <v>0.96126436781609215</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -33671,7 +33731,7 @@
       </c>
       <c r="F35" s="23">
         <f>+Main!H4</f>
-        <v>20109.285908000002</v>
+        <v>21335.461878000002</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -33689,7 +33749,7 @@
       </c>
       <c r="F37" s="23">
         <f>F35+F36</f>
-        <v>34144.285908000005</v>
+        <v>35370.461878000002</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -33712,7 +33772,7 @@
       <c r="E41" s="77"/>
       <c r="F41" s="107">
         <f>+(F36/F37*F32*(1-F40))+(F35/F37*F22)</f>
-        <v>2.8269724038523299E-2</v>
+        <v>2.8076640278432048E-2</v>
       </c>
       <c r="H41" s="84" t="s">
         <v>317</v>
@@ -34715,8 +34775,8 @@
     <mergeCell ref="J3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J20">
-    <cfRule type="top10" dxfId="79" priority="69" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="78" priority="79" rank="5"/>
+    <cfRule type="top10" dxfId="79" priority="79" rank="5"/>
+    <cfRule type="top10" dxfId="78" priority="69" bottom="1" rank="5"/>
     <cfRule type="top10" dxfId="77" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
@@ -34732,40 +34792,40 @@
     <cfRule type="top10" dxfId="73" priority="63" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K10 K19:K20 K17 K12:K14">
-    <cfRule type="top10" dxfId="72" priority="68" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="71" priority="78" rank="5"/>
+    <cfRule type="top10" dxfId="72" priority="78" rank="5"/>
+    <cfRule type="top10" dxfId="71" priority="68" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="top10" dxfId="70" priority="43" rank="10"/>
-    <cfRule type="top10" dxfId="69" priority="44" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="68" priority="45" rank="5"/>
-    <cfRule type="top10" dxfId="67" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="45" rank="5"/>
+    <cfRule type="top10" dxfId="68" priority="44" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="67" priority="43" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="top10" dxfId="66" priority="47" rank="10"/>
-    <cfRule type="top10" dxfId="65" priority="48" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="64" priority="49" rank="5"/>
-    <cfRule type="top10" dxfId="63" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="49" rank="5"/>
+    <cfRule type="top10" dxfId="64" priority="48" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="63" priority="47" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="top10" dxfId="62" priority="39" rank="10"/>
     <cfRule type="top10" dxfId="61" priority="40" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="60" priority="41" rank="5"/>
-    <cfRule type="top10" dxfId="59" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="41" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:N18">
-    <cfRule type="top10" dxfId="58" priority="59" rank="10"/>
-    <cfRule type="top10" dxfId="57" priority="60" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="58" priority="60" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="57" priority="62" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="56" priority="61" rank="5"/>
-    <cfRule type="top10" dxfId="55" priority="62" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="59" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L8 L10:L12 L14:L17 L19:L20">
-    <cfRule type="cellIs" dxfId="54" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="77" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="between">
       <formula>0</formula>
       <formula>1.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="77" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L8 L19:L20 L10:L12 L14:L17">
@@ -34784,19 +34844,19 @@
     <cfRule type="top10" dxfId="44" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10 M20 M15:M17 M12:M13">
-    <cfRule type="top10" dxfId="43" priority="70" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="42" priority="75" rank="5"/>
+    <cfRule type="top10" dxfId="43" priority="75" rank="5"/>
+    <cfRule type="top10" dxfId="42" priority="70" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="top10" dxfId="41" priority="23" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="25" rank="5"/>
     <cfRule type="top10" dxfId="40" priority="24" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="39" priority="25" rank="5"/>
+    <cfRule type="top10" dxfId="39" priority="23" rank="10"/>
     <cfRule type="top10" dxfId="38" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="top10" dxfId="37" priority="27" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="29" rank="5"/>
     <cfRule type="top10" dxfId="36" priority="28" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="35" priority="29" rank="5"/>
+    <cfRule type="top10" dxfId="35" priority="27" rank="10"/>
     <cfRule type="top10" dxfId="34" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
@@ -34810,16 +34870,16 @@
     <cfRule type="top10" dxfId="28" priority="74" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N9">
-    <cfRule type="top10" dxfId="27" priority="19" rank="10"/>
-    <cfRule type="top10" dxfId="26" priority="20" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="25" priority="21" rank="5"/>
-    <cfRule type="top10" dxfId="24" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="21" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="20" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="19" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="top10" dxfId="23" priority="15" rank="10"/>
-    <cfRule type="top10" dxfId="22" priority="16" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="21" priority="17" rank="5"/>
-    <cfRule type="top10" dxfId="20" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="17" rank="5"/>
+    <cfRule type="top10" dxfId="21" priority="15" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="16" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:O12">
     <cfRule type="top10" dxfId="19" priority="11" rank="10"/>
@@ -34832,22 +34892,22 @@
     <cfRule type="top10" dxfId="14" priority="73" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="top10" dxfId="13" priority="1" rank="10"/>
-    <cfRule type="top10" dxfId="12" priority="2" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="11" priority="3" rank="5"/>
-    <cfRule type="top10" dxfId="10" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="top10" dxfId="9" priority="51" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="52" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="9" priority="52" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="8" priority="51" rank="10"/>
     <cfRule type="top10" dxfId="7" priority="53" rank="5"/>
     <cfRule type="top10" dxfId="6" priority="54" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="top10" dxfId="5" priority="7" rank="10"/>
-    <cfRule type="top10" dxfId="4" priority="8" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="3" priority="9" rank="5"/>
-    <cfRule type="top10" dxfId="2" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="9" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="8" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="7" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
     <cfRule type="top10" dxfId="1" priority="5" bottom="1" rank="5"/>

--- a/KER.PA.xlsx
+++ b/KER.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40C33D-0C48-4E3F-A5D5-E1D03E07AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0154-B09C-445A-90B6-192F62ACF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="525">
   <si>
     <t>Kering</t>
   </si>
@@ -1711,6 +1711,12 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative Director: </t>
+  </si>
+  <si>
+    <t>Peirpaolo Piccioli</t>
   </si>
 </sst>
 </file>
@@ -4246,7 +4252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30076D03-558C-464F-8F0F-AA9F5CEE4D93}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4663,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D5ED4-7405-435A-A1C5-535959068216}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,7 +4913,10 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>438</v>
+        <v>523</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>524</v>
       </c>
       <c r="I43" t="s">
         <v>436</v>
@@ -5113,9 +5122,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2E095623-426A-4877-A454-314422E3B28F}"/>
+    <hyperlink ref="D43" r:id="rId1" xr:uid="{8E1BC609-4B93-434C-8446-FD0156E75F10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/KER.PA.xlsx
+++ b/KER.PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0154-B09C-445A-90B6-192F62ACF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05DC702-A012-4B2D-BD9D-D324C98CF795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="526">
   <si>
     <t>Kering</t>
   </si>
@@ -1717,6 +1717,9 @@
   </si>
   <si>
     <t>Peirpaolo Piccioli</t>
+  </si>
+  <si>
+    <t>20-05-25: New Creative Director at Balenciag and 750 mio EUR bond issuance</t>
   </si>
 </sst>
 </file>
@@ -4250,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30076D03-558C-464F-8F0F-AA9F5CEE4D93}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4655,6 +4658,11 @@
         <v>517</v>
       </c>
     </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{7ACF1402-D1B3-4913-A96D-2DF9C97870DB}"/>
@@ -4669,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D5ED4-7405-435A-A1C5-535959068216}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KER.PA.xlsx
+++ b/KER.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05DC702-A012-4B2D-BD9D-D324C98CF795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F870BD1-3FAE-423C-86DE-23FAACE0B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="527">
   <si>
     <t>Kering</t>
   </si>
@@ -1720,6 +1720,9 @@
   </si>
   <si>
     <t>20-05-25: New Creative Director at Balenciag and 750 mio EUR bond issuance</t>
+  </si>
+  <si>
+    <t>10-06-25: Kerign Eyewear acquires Italian manufacturer Lenti (100 employees)-&gt; produces lences for sunglasses, was part of the Safilo Group</t>
   </si>
 </sst>
 </file>
@@ -4253,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30076D03-558C-464F-8F0F-AA9F5CEE4D93}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,6 +4664,11 @@
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/KER.PA.xlsx
+++ b/KER.PA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F870BD1-3FAE-423C-86DE-23FAACE0B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA238568-5919-41CB-BCDB-9D10DD1A891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
+    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{00BE0985-5336-41E3-B925-F565FA10FCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="529">
   <si>
     <t>Kering</t>
   </si>
@@ -1320,9 +1320,6 @@
     <t>Store Growth</t>
   </si>
   <si>
-    <t>CEO: Francois - Henri Pinault</t>
-  </si>
-  <si>
     <t>CFO: Armelle Poulou</t>
   </si>
   <si>
@@ -1723,6 +1720,15 @@
   </si>
   <si>
     <t>10-06-25: Kerign Eyewear acquires Italian manufacturer Lenti (100 employees)-&gt; produces lences for sunglasses, was part of the Safilo Group</t>
+  </si>
+  <si>
+    <t>16-06-25: Kering appoints new CEO Luca de Meo -&gt; biggest rise in stock since 2008, Francouis-Henri Pinault remains chairman of the board</t>
+  </si>
+  <si>
+    <t>CEO: Luca de Meo</t>
+  </si>
+  <si>
+    <t>was former CEO of Renault -&gt; a lot of experience in the automotive industry (Fiat, Volkswagen etc.)</t>
   </si>
 </sst>
 </file>
@@ -2402,146 +2408,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2577,246 +2443,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2932,6 +2558,346 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3012,26 +2978,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3052,21 +2998,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3102,11 +3048,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3162,21 +3168,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3403,15 +3409,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>103264</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503313</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3440,7 +3446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6843713" y="52388"/>
+          <a:off x="6634162" y="1119188"/>
           <a:ext cx="3937076" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4256,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30076D03-558C-464F-8F0F-AA9F5CEE4D93}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4302,7 @@
         <v>122.617597</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -4325,7 +4331,7 @@
         <v>3518</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N5" s="23"/>
     </row>
@@ -4338,7 +4344,7 @@
         <v>14035</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N6" s="23"/>
     </row>
@@ -4418,7 +4424,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="G11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H11" s="114">
         <v>46930</v>
@@ -4442,7 +4448,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -4454,7 +4460,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -4466,7 +4472,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -4478,7 +4484,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="G16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -4490,10 +4496,10 @@
       </c>
       <c r="E17" s="4"/>
       <c r="G17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -4515,7 +4521,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="G19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H19">
         <v>1.07</v>
@@ -4523,27 +4529,27 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J31" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4554,7 +4560,7 @@
         <v>0.78</v>
       </c>
       <c r="J36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -4565,7 +4571,7 @@
         <v>0.22</v>
       </c>
       <c r="J37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -4603,7 +4609,7 @@
         <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -4613,61 +4619,66 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4683,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D5ED4-7405-435A-A1C5-535959068216}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,270 +4710,269 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>438</v>
-      </c>
-      <c r="J5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>515</v>
-      </c>
-      <c r="J6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>368</v>
-      </c>
-      <c r="J7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>369</v>
+        <v>398</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>404</v>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+      <c r="J10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>516</v>
+        <v>368</v>
+      </c>
+      <c r="J11" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>401</v>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>402</v>
+      <c r="B14" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>400</v>
-      </c>
+      <c r="B16" s="84"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>509</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J24" t="s">
-        <v>414</v>
+        <v>405</v>
+      </c>
+      <c r="D24" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>397</v>
-      </c>
-      <c r="J25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>508</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="J29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>373</v>
-      </c>
-      <c r="J26" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>374</v>
-      </c>
-      <c r="J27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J30" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="J31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>510</v>
+      </c>
+      <c r="J36" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>511</v>
-      </c>
-      <c r="J32" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>379</v>
+      </c>
+      <c r="J37" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>379</v>
-      </c>
-      <c r="J33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J37" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>382</v>
-      </c>
-      <c r="J38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>383</v>
-      </c>
-      <c r="J39" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="J41" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>510</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
+      </c>
+      <c r="J42" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>523</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I43" t="s">
-        <v>436</v>
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>372</v>
+      <c r="J45" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>440</v>
-      </c>
-      <c r="G46" t="s">
-        <v>436</v>
+        <v>509</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>439</v>
+        <v>522</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="I47" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>430</v>
       </c>
       <c r="E49" s="2"/>
       <c r="G49" s="2" t="s">
@@ -4971,20 +4981,20 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="G53" s="2" t="s">
@@ -4993,20 +5003,20 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>431</v>
       </c>
       <c r="E57" s="2"/>
       <c r="G57" s="2" t="s">
@@ -5015,7 +5025,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
@@ -5028,7 +5038,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>433</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61" s="2" t="s">
@@ -5037,7 +5047,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G62" t="s">
         <v>28</v>
@@ -5045,12 +5055,12 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E65" s="2"/>
       <c r="G65" s="2" t="s">
@@ -5059,7 +5069,7 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G66" t="s">
         <v>28</v>
@@ -5072,7 +5082,7 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E69" s="2"/>
       <c r="G69" s="2" t="s">
@@ -5081,64 +5091,86 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>449</v>
+      </c>
+      <c r="G74" t="s">
         <v>450</v>
       </c>
-      <c r="G70" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="G72" s="2" t="s">
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="G76" s="2" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>452</v>
-      </c>
-      <c r="G73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J75" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>429</v>
-      </c>
-      <c r="J76" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>383</v>
+        <v>451</v>
+      </c>
+      <c r="G77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>428</v>
+      </c>
+      <c r="J80" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>490</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2E095623-426A-4877-A454-314422E3B28F}"/>
-    <hyperlink ref="D43" r:id="rId1" xr:uid="{8E1BC609-4B93-434C-8446-FD0156E75F10}"/>
+    <hyperlink ref="D47" r:id="rId1" xr:uid="{8E1BC609-4B93-434C-8446-FD0156E75F10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5160,12 +5192,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5244,27 +5276,27 @@
         <v>42</v>
       </c>
       <c r="R2" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>459</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -5315,7 +5347,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -5366,7 +5398,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -5417,7 +5449,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -5468,7 +5500,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -5519,7 +5551,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -5582,7 +5614,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -5645,7 +5677,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -10975,7 +11007,7 @@
     </row>
     <row r="71" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -14386,7 +14418,7 @@
     </row>
     <row r="107" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C107" s="23">
         <v>0</v>
@@ -16317,7 +16349,7 @@
     </row>
     <row r="130" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C130" s="23">
         <v>0</v>
@@ -20053,52 +20085,52 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>487</v>
-      </c>
       <c r="G2" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>479</v>
-      </c>
       <c r="K2" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>521</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -20106,7 +20138,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20192,7 +20224,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="23">
         <v>739</v>
@@ -20468,7 +20500,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" s="23">
         <v>-51</v>
@@ -20658,7 +20690,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -20794,7 +20826,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -29145,7 +29177,7 @@
       <c r="L2" s="104"/>
       <c r="M2" s="105"/>
       <c r="N2" s="104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O2" s="104" t="s">
         <v>143</v>
@@ -29524,7 +29556,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C12" s="23">
         <f>+Model!J94+Model!J97+SUM(Model!J100:J104)-SUM(Model!J124:J128)</f>
@@ -30276,7 +30308,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D32" s="18">
         <f t="shared" ref="D32:H32" si="17">+D29*D25</f>
@@ -31392,7 +31424,7 @@
         <v>715.77023433704926</v>
       </c>
       <c r="L4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O4" s="58">
         <f>+SUM(J15,O15,T15)</f>
@@ -34801,8 +34833,8 @@
     <mergeCell ref="J3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J20">
-    <cfRule type="top10" dxfId="79" priority="79" rank="5"/>
-    <cfRule type="top10" dxfId="78" priority="69" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="79" priority="69" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="78" priority="79" rank="5"/>
     <cfRule type="top10" dxfId="77" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
@@ -34818,40 +34850,40 @@
     <cfRule type="top10" dxfId="73" priority="63" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K10 K19:K20 K17 K12:K14">
-    <cfRule type="top10" dxfId="72" priority="78" rank="5"/>
-    <cfRule type="top10" dxfId="71" priority="68" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="72" priority="68" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="71" priority="78" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="top10" dxfId="70" priority="46" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="69" priority="45" rank="5"/>
-    <cfRule type="top10" dxfId="68" priority="44" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="67" priority="43" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="43" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="44" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="68" priority="45" rank="5"/>
+    <cfRule type="top10" dxfId="67" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="top10" dxfId="66" priority="50" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="65" priority="49" rank="5"/>
-    <cfRule type="top10" dxfId="64" priority="48" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="63" priority="47" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="47" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="48" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="64" priority="49" rank="5"/>
+    <cfRule type="top10" dxfId="63" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="top10" dxfId="62" priority="39" rank="10"/>
     <cfRule type="top10" dxfId="61" priority="40" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="60" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="59" priority="41" rank="5"/>
+    <cfRule type="top10" dxfId="60" priority="41" rank="5"/>
+    <cfRule type="top10" dxfId="59" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:N18">
-    <cfRule type="top10" dxfId="58" priority="60" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="57" priority="62" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="59" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="60" bottom="1" rank="5"/>
     <cfRule type="top10" dxfId="56" priority="61" rank="5"/>
-    <cfRule type="top10" dxfId="55" priority="59" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="62" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L8 L10:L12 L14:L17 L19:L20">
-    <cfRule type="cellIs" dxfId="54" priority="77" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="between">
       <formula>0</formula>
       <formula>1.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="77" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L8 L19:L20 L10:L12 L14:L17">
@@ -34870,19 +34902,19 @@
     <cfRule type="top10" dxfId="44" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10 M20 M15:M17 M12:M13">
-    <cfRule type="top10" dxfId="43" priority="75" rank="5"/>
-    <cfRule type="top10" dxfId="42" priority="70" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="43" priority="70" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="42" priority="75" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="top10" dxfId="41" priority="25" rank="5"/>
+    <cfRule type="top10" dxfId="41" priority="23" rank="10"/>
     <cfRule type="top10" dxfId="40" priority="24" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="39" priority="23" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="25" rank="5"/>
     <cfRule type="top10" dxfId="38" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="top10" dxfId="37" priority="29" rank="5"/>
+    <cfRule type="top10" dxfId="37" priority="27" rank="10"/>
     <cfRule type="top10" dxfId="36" priority="28" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="35" priority="27" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="29" rank="5"/>
     <cfRule type="top10" dxfId="34" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
@@ -34896,16 +34928,16 @@
     <cfRule type="top10" dxfId="28" priority="74" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N9">
-    <cfRule type="top10" dxfId="27" priority="21" rank="5"/>
-    <cfRule type="top10" dxfId="26" priority="22" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="25" priority="20" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="24" priority="19" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="19" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="20" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="21" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="top10" dxfId="23" priority="18" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="22" priority="17" rank="5"/>
-    <cfRule type="top10" dxfId="21" priority="15" rank="10"/>
-    <cfRule type="top10" dxfId="20" priority="16" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="15" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="16" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="21" priority="17" rank="5"/>
+    <cfRule type="top10" dxfId="20" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:O12">
     <cfRule type="top10" dxfId="19" priority="11" rank="10"/>
@@ -34918,22 +34950,22 @@
     <cfRule type="top10" dxfId="14" priority="73" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="12" priority="3" rank="5"/>
-    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="10" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="11" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="10" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="top10" dxfId="9" priority="52" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="8" priority="51" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="51" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="52" bottom="1" rank="5"/>
     <cfRule type="top10" dxfId="7" priority="53" rank="5"/>
     <cfRule type="top10" dxfId="6" priority="54" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="top10" dxfId="5" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="4" priority="9" rank="5"/>
-    <cfRule type="top10" dxfId="3" priority="8" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="2" priority="7" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="7" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="8" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="9" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
     <cfRule type="top10" dxfId="1" priority="5" bottom="1" rank="5"/>
